--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="17620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28480" windowHeight="19120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rates" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Year</t>
   </si>
@@ -186,6 +186,9 @@
   <si>
     <t>Minneapolis Police Department</t>
   </si>
+  <si>
+    <t>percent change last year</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -271,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -347,8 +356,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,8 +374,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -398,6 +415,9 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -435,6 +455,9 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,11 +571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1808808648"/>
-        <c:axId val="-2087751416"/>
+        <c:axId val="1777146024"/>
+        <c:axId val="1776299864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808808648"/>
+        <c:axId val="1777146024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087751416"/>
+        <c:crossAx val="1776299864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087751416"/>
+        <c:axId val="1776299864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808808648"/>
+        <c:crossAx val="1777146024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,11 +733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1807911192"/>
-        <c:axId val="-2063262392"/>
+        <c:axId val="-2084699944"/>
+        <c:axId val="-2084696920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1807911192"/>
+        <c:axId val="-2084699944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063262392"/>
+        <c:crossAx val="-2084696920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063262392"/>
+        <c:axId val="-2084696920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1807911192"/>
+        <c:crossAx val="-2084699944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -865,11 +888,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1807931160"/>
-        <c:axId val="1808332808"/>
+        <c:axId val="1789955544"/>
+        <c:axId val="-2090677560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1807931160"/>
+        <c:axId val="1789955544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808332808"/>
+        <c:crossAx val="-2090677560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808332808"/>
+        <c:axId val="-2090677560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1807931160"/>
+        <c:crossAx val="1789955544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,11 +1043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1808363944"/>
-        <c:axId val="1807929928"/>
+        <c:axId val="1790788552"/>
+        <c:axId val="-2090458600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808363944"/>
+        <c:axId val="1790788552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1807929928"/>
+        <c:crossAx val="-2090458600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1041,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1807929928"/>
+        <c:axId val="-2090458600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808363944"/>
+        <c:crossAx val="1790788552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1175,11 +1198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1808311976"/>
-        <c:axId val="1808057560"/>
+        <c:axId val="1790031368"/>
+        <c:axId val="1790034376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808311976"/>
+        <c:axId val="1790031368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808057560"/>
+        <c:crossAx val="1790034376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808057560"/>
+        <c:axId val="1790034376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808311976"/>
+        <c:crossAx val="1790031368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,11 +1353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2063265576"/>
-        <c:axId val="1808092760"/>
+        <c:axId val="1790057160"/>
+        <c:axId val="1790060168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2063265576"/>
+        <c:axId val="1790057160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808092760"/>
+        <c:crossAx val="1790060168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1351,7 +1374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808092760"/>
+        <c:axId val="1790060168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063265576"/>
+        <c:crossAx val="1790057160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,11 +1508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2063328824"/>
-        <c:axId val="1808262376"/>
+        <c:axId val="1790082952"/>
+        <c:axId val="-2076089016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2063328824"/>
+        <c:axId val="1790082952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808262376"/>
+        <c:crossAx val="-2076089016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,7 +1529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808262376"/>
+        <c:axId val="-2076089016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063328824"/>
+        <c:crossAx val="1790082952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,11 +1660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1808236648"/>
-        <c:axId val="1808239320"/>
+        <c:axId val="-2075595768"/>
+        <c:axId val="-2075594360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808236648"/>
+        <c:axId val="-2075595768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808239320"/>
+        <c:crossAx val="-2075594360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808239320"/>
+        <c:axId val="-2075594360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808236648"/>
+        <c:crossAx val="-2075595768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,11 +1815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1808079736"/>
-        <c:axId val="1808082744"/>
+        <c:axId val="-2075605800"/>
+        <c:axId val="-2075604968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808079736"/>
+        <c:axId val="-2075605800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808082744"/>
+        <c:crossAx val="-2075604968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1813,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808082744"/>
+        <c:axId val="-2075604968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808079736"/>
+        <c:crossAx val="-2075605800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1944,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1808223448"/>
-        <c:axId val="1808226168"/>
+        <c:axId val="1792399848"/>
+        <c:axId val="1792401256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1808223448"/>
+        <c:axId val="1792399848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808226168"/>
+        <c:crossAx val="1792401256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808226168"/>
+        <c:axId val="1792401256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1808223448"/>
+        <c:crossAx val="1792399848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,7 +2615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4215,19 +4238,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15">
+    <row r="1" spans="1:24" ht="15">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -4297,8 +4321,11 @@
       <c r="W1" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4354,242 +4381,240 @@
         <v>70.043751208777422</v>
       </c>
       <c r="T2" s="6">
-        <f t="shared" ref="T2:T11" si="0">(C2-S2) / S2</f>
+        <f>(C2-S2) / S2</f>
         <v>-0.70423266923469285</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="8">
-        <f t="shared" ref="V2:V9" si="1">(C2-I2) / I2</f>
+        <f>(C2-I2) / I2</f>
         <v>-0.33397178164899516</v>
       </c>
       <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="11">
+        <f>(C2-D2) / D2</f>
+        <v>-0.26327830323465529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>568.63641559035318</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>478.14988379624344</v>
+        <v>11515.83990551301</v>
       </c>
       <c r="D3">
-        <v>421.80079851254612</v>
+        <v>13377.14566914818</v>
       </c>
       <c r="E3">
-        <v>378.580650808587</v>
+        <v>12756.247067033333</v>
       </c>
       <c r="F3">
-        <v>396.81945837012205</v>
+        <v>13601.604238061745</v>
       </c>
       <c r="G3">
-        <v>488.47144562417543</v>
+        <v>13888.190823228833</v>
       </c>
       <c r="H3">
-        <v>463.03815939753474</v>
+        <v>13524.272119998041</v>
       </c>
       <c r="I3">
-        <v>492.70998332366213</v>
+        <v>14352.367360381413</v>
       </c>
       <c r="J3">
-        <v>479.96979500427989</v>
+        <v>14428.57475348534</v>
       </c>
       <c r="K3">
-        <v>625.17462083248961</v>
+        <v>15773.163373328447</v>
       </c>
       <c r="L3">
-        <v>827.2769444873976</v>
+        <v>17192.670480903045</v>
       </c>
       <c r="M3">
-        <v>956.77500837693628</v>
+        <v>17998.041085650955</v>
       </c>
       <c r="N3">
-        <v>1017.2525411969224</v>
+        <v>16765.064700253541</v>
       </c>
       <c r="O3">
-        <v>970.71129707112959</v>
+        <v>16035.303347280336</v>
       </c>
       <c r="P3">
-        <v>940.63485005035386</v>
+        <v>16800.899828666345</v>
       </c>
       <c r="Q3">
-        <v>917.95139796184992</v>
+        <v>18188.398223151296</v>
       </c>
       <c r="R3">
-        <v>1074.9229956647473</v>
+        <v>18978.627048001548</v>
       </c>
       <c r="S3">
-        <v>1018.7706798948298</v>
+        <v>19245.043359172854</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.53065994808016648</v>
-      </c>
-      <c r="U3" s="6">
-        <f>(B3-S3) / S3</f>
-        <v>-0.44184061554553677</v>
-      </c>
+        <f>(C3-S3) / S3</f>
+        <v>-0.40162047491443231</v>
+      </c>
+      <c r="U3" s="6"/>
       <c r="V3" s="8">
-        <f t="shared" si="1"/>
-        <v>-2.9551054413797271E-2</v>
-      </c>
-      <c r="W3" s="8">
-        <f>(B3-I3) / I3</f>
-        <v>0.15409964246008556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <f>(C3-I3) / I3</f>
+        <v>-0.19763481407941208</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="X3" s="11">
+        <f>(C3-D3) / D3</f>
+        <v>-0.13914072625581961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>9.7630205356802691</v>
+        <v>422.66735245932864</v>
       </c>
       <c r="C4">
-        <v>8.8105307273212183</v>
+        <v>439.8121690097916</v>
       </c>
       <c r="D4">
-        <v>12.120712600935235</v>
+        <v>461.07190733957628</v>
       </c>
       <c r="E4">
-        <v>7.7807198624757765</v>
+        <v>458.33302939896373</v>
       </c>
       <c r="F4">
-        <v>9.9766048615995491</v>
+        <v>467.15452264439887</v>
       </c>
       <c r="G4">
-        <v>10.994534145881762</v>
+        <v>454.44074469644613</v>
       </c>
       <c r="H4">
-        <v>9.5392048428222633</v>
+        <v>414.05305344790696</v>
       </c>
       <c r="I4">
-        <v>10.19399965497232</v>
+        <v>409.85106305119479</v>
       </c>
       <c r="J4">
-        <v>4.9134838928239857</v>
+        <v>441.4377371079234</v>
       </c>
       <c r="K4">
-        <v>10.252966311315943</v>
+        <v>529.82203413725131</v>
       </c>
       <c r="L4">
-        <v>12.112777691871553</v>
+        <v>659.75980619555696</v>
       </c>
       <c r="M4">
-        <v>14.691857617857051</v>
+        <v>794.13356702837837</v>
       </c>
       <c r="N4">
-        <v>12.122431398644867</v>
+        <v>677.05068981793136</v>
       </c>
       <c r="O4">
-        <v>14.121338912133892</v>
+        <v>598.58786610878656</v>
       </c>
       <c r="P4">
-        <v>12.032592631344905</v>
+        <v>581.22653971409522</v>
       </c>
       <c r="Q4">
-        <v>12.281160177684871</v>
+        <v>476.35223412594723</v>
       </c>
       <c r="R4">
-        <v>11.243417371341314</v>
+        <v>511.70622780732447</v>
       </c>
       <c r="S4">
-        <v>13.067864031488323</v>
+        <v>518.01013020819721</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.32578647083476192</v>
+        <f>(C4-S4) / S4</f>
+        <v>-0.15095836285475053</v>
       </c>
       <c r="U4" s="6">
         <f>(B4-S4) / S4</f>
-        <v>-0.25289852173581723</v>
+        <v>-0.1840558170369152</v>
       </c>
       <c r="V4" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.13571404497510334</v>
+        <f>(C4-I4) / I4</f>
+        <v>7.3102423440229936E-2</v>
       </c>
       <c r="W4" s="8">
         <f>(B4-I4) / I4</f>
-        <v>-4.2277725512952349E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>3.1270601844292312E-2</v>
+      </c>
+      <c r="X4" s="11">
+        <f>(B4-C4) / C4</f>
+        <v>-3.898213318895518E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>895.5785423095972</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>817.47437802415516</v>
+        <v>1104.650055244409</v>
       </c>
       <c r="D5">
-        <v>864.44922269870096</v>
+        <v>1084.8037777837035</v>
       </c>
       <c r="E5">
-        <v>1005.658042224994</v>
+        <v>1008.818959669125</v>
       </c>
       <c r="F5">
-        <v>1153.2955220009078</v>
+        <v>1021.1055075847138</v>
       </c>
       <c r="G5">
-        <v>1252.8533433854789</v>
+        <v>1036.3657305606166</v>
       </c>
       <c r="H5">
-        <v>1318.9884317805056</v>
+        <v>945.67036117492069</v>
       </c>
       <c r="I5">
-        <v>1260.3965727250391</v>
+        <v>1063.0511947890366</v>
       </c>
       <c r="J5">
-        <v>1231.9914350217614</v>
+        <v>1116.653865748104</v>
       </c>
       <c r="K5">
-        <v>1436.1842560575806</v>
+        <v>1253.1688074005913</v>
       </c>
       <c r="L5">
-        <v>1593.2168444925519</v>
+        <v>1458.9454151847842</v>
       </c>
       <c r="M5">
-        <v>1510.6838157589505</v>
+        <v>1671.5209938912803</v>
       </c>
       <c r="N5">
-        <v>1431.9944494739639</v>
+        <v>1437.1529309201956</v>
       </c>
       <c r="O5">
-        <v>1252.876569037657</v>
+        <v>1261.7677824267782</v>
       </c>
       <c r="P5">
-        <v>1179.9788121738447</v>
+        <v>1201.689794530402</v>
       </c>
       <c r="Q5">
-        <v>1166.4489155996864</v>
+        <v>1097.9879801411028</v>
       </c>
       <c r="R5">
-        <v>1074.9229956647473</v>
+        <v>1082.2442906972487</v>
       </c>
       <c r="S5">
-        <v>1193.3573433555139</v>
+        <v>1173.7555473082814</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.3149793877116816</v>
-      </c>
-      <c r="U5" s="6">
-        <f>(B5-S5) / S5</f>
-        <v>-0.24953028755713216</v>
-      </c>
+        <f>(C5-S5) / S5</f>
+        <v>-5.8875540330649553E-2</v>
+      </c>
+      <c r="U5" s="6"/>
       <c r="V5" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.35141494691886099</v>
-      </c>
-      <c r="W5" s="8">
-        <f>(B5-I5) / I5</f>
-        <v>-0.28944701874798612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <f>(C5-I5) / I5</f>
+        <v>3.9131568318897178E-2</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="11">
+        <f>(C5-D5) / D5</f>
+        <v>1.8294808579347198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4648,7 +4673,7 @@
         <v>3898.1438405929671</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="0"/>
+        <f>(C6-S6) / S6</f>
         <v>-0.25462725871159686</v>
       </c>
       <c r="U6" s="6">
@@ -4656,360 +4681,405 @@
         <v>-0.19629002154306513</v>
       </c>
       <c r="V6" s="8">
-        <f t="shared" si="1"/>
+        <f>(C6-I6) / I6</f>
         <v>-2.7295046530243977E-2</v>
       </c>
       <c r="W6" s="8">
         <f>(B6-I6) / I6</f>
         <v>4.88345412884428E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="11">
+        <f>(B6-C6) / C6</f>
+        <v>7.8265858056056306E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>422.66735245932864</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>439.8121690097916</v>
+        <v>544.10980302510757</v>
       </c>
       <c r="D7">
-        <v>461.07190733957628</v>
+        <v>503.49440144284961</v>
       </c>
       <c r="E7">
-        <v>458.33302939896373</v>
+        <v>442.2852946826074</v>
       </c>
       <c r="F7">
-        <v>467.15452264439887</v>
+        <v>444.70716170579988</v>
       </c>
       <c r="G7">
-        <v>454.44074469644613</v>
+        <v>454.70251931896712</v>
       </c>
       <c r="H7">
-        <v>414.05305344790696</v>
+        <v>425.65478906755561</v>
       </c>
       <c r="I7">
-        <v>409.85106305119479</v>
+        <v>508.13167510938945</v>
       </c>
       <c r="J7">
-        <v>441.4377371079234</v>
+        <v>562.9818123514641</v>
       </c>
       <c r="K7">
-        <v>529.82203413725131</v>
+        <v>611.84576462777886</v>
       </c>
       <c r="L7">
-        <v>659.75980619555696</v>
+        <v>664.65646100716458</v>
       </c>
       <c r="M7">
-        <v>794.13356702837837</v>
+        <v>739.74791865350414</v>
       </c>
       <c r="N7">
-        <v>677.05068981793136</v>
+        <v>637.33038268194616</v>
       </c>
       <c r="O7">
-        <v>598.58786610878656</v>
+        <v>541.31799163179915</v>
       </c>
       <c r="P7">
-        <v>581.22653971409522</v>
+        <v>503.79942191239746</v>
       </c>
       <c r="Q7">
-        <v>476.35223412594723</v>
+        <v>508.75359289260513</v>
       </c>
       <c r="R7">
-        <v>511.70622780732447</v>
+        <v>452.87439272472449</v>
       </c>
       <c r="S7">
-        <v>518.01013020819721</v>
+        <v>526.63492046897943</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.15095836285475053</v>
-      </c>
-      <c r="U7" s="6">
-        <f>(B7-S7) / S7</f>
-        <v>-0.1840558170369152</v>
-      </c>
-      <c r="V7" s="8">
-        <f t="shared" si="1"/>
-        <v>7.3102423440229936E-2</v>
-      </c>
-      <c r="W7" s="8">
-        <f>(B7-I7) / I7</f>
-        <v>3.1270601844292312E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <f>(C7-S7) / S7</f>
+        <v>3.3182156892608616E-2</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="11">
+        <f>(C7-D7) / D7</f>
+        <v>8.0667037142553244E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>122.15681792204823</v>
       </c>
       <c r="C8">
-        <v>1104.650055244409</v>
+        <v>111.91755248218843</v>
       </c>
       <c r="D8">
-        <v>1084.8037777837035</v>
+        <v>108.11675640034228</v>
       </c>
       <c r="E8">
-        <v>1008.818959669125</v>
+        <v>100.419915725078</v>
       </c>
       <c r="F8">
-        <v>1021.1055075847138</v>
+        <v>99.267218372915522</v>
       </c>
       <c r="G8">
-        <v>1036.3657305606166</v>
+        <v>116.22793239932149</v>
       </c>
       <c r="H8">
-        <v>945.67036117492069</v>
+        <v>96.423313816635854</v>
       </c>
       <c r="I8">
-        <v>1063.0511947890366</v>
+        <v>134.87445697347991</v>
       </c>
       <c r="J8">
-        <v>1116.653865748104</v>
+        <v>107.32083239589232</v>
       </c>
       <c r="K8">
-        <v>1253.1688074005913</v>
+        <v>101.24804232424493</v>
       </c>
       <c r="L8">
-        <v>1458.9454151847842</v>
+        <v>122.41637029019124</v>
       </c>
       <c r="M8">
-        <v>1671.5209938912803</v>
+        <v>122.94765059154059</v>
       </c>
       <c r="N8">
-        <v>1437.1529309201956</v>
+        <v>110.64942702167335</v>
       </c>
       <c r="O8">
-        <v>1261.7677824267782</v>
+        <v>107.74058577405859</v>
       </c>
       <c r="P8">
-        <v>1201.689794530402</v>
+        <v>104.63124027256438</v>
       </c>
       <c r="Q8">
-        <v>1097.9879801411028</v>
+        <v>100.60099294486542</v>
       </c>
       <c r="R8">
-        <v>1082.2442906972487</v>
+        <v>106.42025279385848</v>
       </c>
       <c r="S8">
-        <v>1173.7555473082814</v>
+        <v>116.04263259961633</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="0"/>
-        <v>-5.8875540330649553E-2</v>
-      </c>
-      <c r="U8" s="6"/>
+        <f>(C8-S8) / S8</f>
+        <v>-3.5547970819144771E-2</v>
+      </c>
+      <c r="U8" s="6">
+        <f>(B8-S8) / S8</f>
+        <v>5.2689129722933596E-2</v>
+      </c>
       <c r="V8" s="8">
-        <f t="shared" si="1"/>
-        <v>3.9131568318897178E-2</v>
-      </c>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:23">
+        <f>(C8-I8) / I8</f>
+        <v>-0.17020943035793243</v>
+      </c>
+      <c r="W8" s="8">
+        <f>(B8-I8) / I8</f>
+        <v>-9.4292420794934648E-2</v>
+      </c>
+      <c r="X8" s="11">
+        <f>(B8-C8) / C8</f>
+        <v>9.1489361702127792E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>122.15681792204823</v>
+        <v>895.5785423095972</v>
       </c>
       <c r="C9">
-        <v>111.91755248218843</v>
+        <v>817.47437802415516</v>
       </c>
       <c r="D9">
-        <v>108.11675640034228</v>
+        <v>864.44922269870096</v>
       </c>
       <c r="E9">
-        <v>100.419915725078</v>
+        <v>1005.658042224994</v>
       </c>
       <c r="F9">
-        <v>99.267218372915522</v>
+        <v>1153.2955220009078</v>
       </c>
       <c r="G9">
-        <v>116.22793239932149</v>
+        <v>1252.8533433854789</v>
       </c>
       <c r="H9">
-        <v>96.423313816635854</v>
+        <v>1318.9884317805056</v>
       </c>
       <c r="I9">
-        <v>134.87445697347991</v>
+        <v>1260.3965727250391</v>
       </c>
       <c r="J9">
-        <v>107.32083239589232</v>
+        <v>1231.9914350217614</v>
       </c>
       <c r="K9">
-        <v>101.24804232424493</v>
+        <v>1436.1842560575806</v>
       </c>
       <c r="L9">
-        <v>122.41637029019124</v>
+        <v>1593.2168444925519</v>
       </c>
       <c r="M9">
-        <v>122.94765059154059</v>
+        <v>1510.6838157589505</v>
       </c>
       <c r="N9">
-        <v>110.64942702167335</v>
+        <v>1431.9944494739639</v>
       </c>
       <c r="O9">
-        <v>107.74058577405859</v>
+        <v>1252.876569037657</v>
       </c>
       <c r="P9">
-        <v>104.63124027256438</v>
+        <v>1179.9788121738447</v>
       </c>
       <c r="Q9">
-        <v>100.60099294486542</v>
+        <v>1166.4489155996864</v>
       </c>
       <c r="R9">
-        <v>106.42025279385848</v>
+        <v>1074.9229956647473</v>
       </c>
       <c r="S9">
-        <v>116.04263259961633</v>
+        <v>1193.3573433555139</v>
       </c>
       <c r="T9" s="6">
-        <f t="shared" si="0"/>
-        <v>-3.5547970819144771E-2</v>
+        <f>(C9-S9) / S9</f>
+        <v>-0.3149793877116816</v>
       </c>
       <c r="U9" s="6">
         <f>(B9-S9) / S9</f>
-        <v>5.2689129722933596E-2</v>
+        <v>-0.24953028755713216</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.17020943035793243</v>
+        <f>(C9-I9) / I9</f>
+        <v>-0.35141494691886099</v>
       </c>
       <c r="W9" s="8">
         <f>(B9-I9) / I9</f>
-        <v>-9.4292420794934648E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>-0.28944701874798612</v>
+      </c>
+      <c r="X9" s="11">
+        <f>(B9-C9) / C9</f>
+        <v>9.5543256626856837E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>9.7630205356802691</v>
       </c>
       <c r="C10">
-        <v>544.10980302510757</v>
+        <v>8.8105307273212183</v>
       </c>
       <c r="D10">
-        <v>503.49440144284961</v>
+        <v>12.120712600935235</v>
       </c>
       <c r="E10">
-        <v>442.2852946826074</v>
+        <v>7.7807198624757765</v>
       </c>
       <c r="F10">
-        <v>444.70716170579988</v>
+        <v>9.9766048615995491</v>
       </c>
       <c r="G10">
-        <v>454.70251931896712</v>
+        <v>10.994534145881762</v>
       </c>
       <c r="H10">
-        <v>425.65478906755561</v>
+        <v>9.5392048428222633</v>
       </c>
       <c r="I10">
-        <v>508.13167510938945</v>
+        <v>10.19399965497232</v>
       </c>
       <c r="J10">
-        <v>562.9818123514641</v>
+        <v>4.9134838928239857</v>
       </c>
       <c r="K10">
-        <v>611.84576462777886</v>
+        <v>10.252966311315943</v>
       </c>
       <c r="L10">
-        <v>664.65646100716458</v>
+        <v>12.112777691871553</v>
       </c>
       <c r="M10">
-        <v>739.74791865350414</v>
+        <v>14.691857617857051</v>
       </c>
       <c r="N10">
-        <v>637.33038268194616</v>
+        <v>12.122431398644867</v>
       </c>
       <c r="O10">
-        <v>541.31799163179915</v>
+        <v>14.121338912133892</v>
       </c>
       <c r="P10">
-        <v>503.79942191239746</v>
+        <v>12.032592631344905</v>
       </c>
       <c r="Q10">
-        <v>508.75359289260513</v>
+        <v>12.281160177684871</v>
       </c>
       <c r="R10">
-        <v>452.87439272472449</v>
+        <v>11.243417371341314</v>
       </c>
       <c r="S10">
-        <v>526.63492046897943</v>
+        <v>13.067864031488323</v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3182156892608616E-2</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23">
+        <f>(C10-S10) / S10</f>
+        <v>-0.32578647083476192</v>
+      </c>
+      <c r="U10" s="6">
+        <f>(B10-S10) / S10</f>
+        <v>-0.25289852173581723</v>
+      </c>
+      <c r="V10" s="8">
+        <f>(C10-I10) / I10</f>
+        <v>-0.13571404497510334</v>
+      </c>
+      <c r="W10" s="8">
+        <f>(B10-I10) / I10</f>
+        <v>-4.2277725512952349E-2</v>
+      </c>
+      <c r="X10" s="11">
+        <f>(B10-C10) / C10</f>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>568.63641559035318</v>
       </c>
       <c r="C11">
-        <v>11515.83990551301</v>
+        <v>478.14988379624344</v>
       </c>
       <c r="D11">
-        <v>13377.14566914818</v>
+        <v>421.80079851254612</v>
       </c>
       <c r="E11">
-        <v>12756.247067033333</v>
+        <v>378.580650808587</v>
       </c>
       <c r="F11">
-        <v>13601.604238061745</v>
+        <v>396.81945837012205</v>
       </c>
       <c r="G11">
-        <v>13888.190823228833</v>
+        <v>488.47144562417543</v>
       </c>
       <c r="H11">
-        <v>13524.272119998041</v>
+        <v>463.03815939753474</v>
       </c>
       <c r="I11">
-        <v>14352.367360381413</v>
+        <v>492.70998332366213</v>
       </c>
       <c r="J11">
-        <v>14428.57475348534</v>
+        <v>479.96979500427989</v>
       </c>
       <c r="K11">
-        <v>15773.163373328447</v>
+        <v>625.17462083248961</v>
       </c>
       <c r="L11">
-        <v>17192.670480903045</v>
+        <v>827.2769444873976</v>
       </c>
       <c r="M11">
-        <v>17998.041085650955</v>
+        <v>956.77500837693628</v>
       </c>
       <c r="N11">
-        <v>16765.064700253541</v>
+        <v>1017.2525411969224</v>
       </c>
       <c r="O11">
-        <v>16035.303347280336</v>
+        <v>970.71129707112959</v>
       </c>
       <c r="P11">
-        <v>16800.899828666345</v>
+        <v>940.63485005035386</v>
       </c>
       <c r="Q11">
-        <v>18188.398223151296</v>
+        <v>917.95139796184992</v>
       </c>
       <c r="R11">
-        <v>18978.627048001548</v>
+        <v>1074.9229956647473</v>
       </c>
       <c r="S11">
-        <v>19245.043359172854</v>
+        <v>1018.7706798948298</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.40162047491443231</v>
-      </c>
-      <c r="U11" s="6"/>
+        <f>(C11-S11) / S11</f>
+        <v>-0.53065994808016648</v>
+      </c>
+      <c r="U11" s="6">
+        <f>(B11-S11) / S11</f>
+        <v>-0.44184061554553677</v>
+      </c>
       <c r="V11" s="8">
         <f>(C11-I11) / I11</f>
-        <v>-0.19763481407941208</v>
-      </c>
-      <c r="W11" s="8"/>
+        <v>-2.9551054413797271E-2</v>
+      </c>
+      <c r="W11" s="8">
+        <f>(B11-I11) / I11</f>
+        <v>0.15409964246008556</v>
+      </c>
+      <c r="X11" s="11">
+        <f>(B11-C11) / C11</f>
+        <v>0.18924302788844605</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:X11">
+    <sortCondition ref="X1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5024,7 +5094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
